--- a/BKS.xlsx
+++ b/BKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AdvancedAlgorithms2025\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66005657-FE3C-42A6-B210-A7FC65524A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E558E-7F01-423F-BBE8-42C6F6C3EA8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F1EEC56E-C0E4-4F70-A478-726A9B2301E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>50-ch-1</t>
   </si>
@@ -250,19 +250,67 @@
   </si>
   <si>
     <t>Travel Distance</t>
+  </si>
+  <si>
+    <t>i200</t>
+  </si>
+  <si>
+    <t>i400</t>
+  </si>
+  <si>
+    <t>i600</t>
+  </si>
+  <si>
+    <t>i800</t>
+  </si>
+  <si>
+    <t>i1000</t>
+  </si>
+  <si>
+    <t>ts200</t>
+  </si>
+  <si>
+    <t>ts400</t>
+  </si>
+  <si>
+    <t>ts600</t>
+  </si>
+  <si>
+    <t>ts800</t>
+  </si>
+  <si>
+    <t>grasp200</t>
+  </si>
+  <si>
+    <t>grasp400</t>
+  </si>
+  <si>
+    <t>grasp600</t>
+  </si>
+  <si>
+    <t>grasp800</t>
+  </si>
+  <si>
+    <t>grasp1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -297,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +355,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C591BF4D-3AE8-40DB-9FA5-5B2C30C76C25}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1404,164 @@
         <v>36767.919999999998</v>
       </c>
     </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="4">
+        <v>20</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4784.1099999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="5">
+        <v>39</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7417.92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="5">
+        <v>12</v>
+      </c>
+      <c r="C71" s="5">
+        <v>11555.51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="5">
+        <v>72</v>
+      </c>
+      <c r="C72" s="5">
+        <v>28555.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5">
+        <v>19</v>
+      </c>
+      <c r="C73" s="5">
+        <v>36216.050000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="5">
+        <v>18</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="5">
+        <v>40</v>
+      </c>
+      <c r="C76" s="5">
+        <v>10372.31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="5">
+        <v>60</v>
+      </c>
+      <c r="C77" s="5">
+        <v>14095.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="5">
+        <v>18</v>
+      </c>
+      <c r="C78" s="5">
+        <v>20981.14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="5">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3099.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="5">
+        <v>36</v>
+      </c>
+      <c r="C81" s="5">
+        <v>8571.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="5">
+        <v>55</v>
+      </c>
+      <c r="C82" s="5">
+        <v>16077.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="5">
+        <v>79</v>
+      </c>
+      <c r="C83" s="5">
+        <v>26873.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="5">
+        <v>97</v>
+      </c>
+      <c r="C84" s="5">
+        <v>43341.77</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A25:C65">
     <sortCondition ref="A1"/>
